--- a/reference/Data Format.xlsx
+++ b/reference/Data Format.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victorperso/Documents/EUR/Aegon Marketing Case/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victorperso/Documents/EUR/Aegon Marketing Case/baqm-seminar-16/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F7C671-590F-9D45-9B46-7242C6552E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11226AC4-D16A-DB41-B2A8-1E29970ADC65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{A5F595FE-D205-7E44-A0CB-1A074940655C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
   <si>
     <t>customer</t>
   </si>
@@ -59,67 +59,134 @@
     <t>LPA</t>
   </si>
   <si>
-    <t>Premium</t>
-  </si>
-  <si>
     <t>Control</t>
   </si>
   <si>
     <t>WD and LPA</t>
   </si>
   <si>
-    <t>churn 2020</t>
-  </si>
-  <si>
-    <t>churn 2021</t>
-  </si>
-  <si>
-    <t>churn 2022</t>
-  </si>
-  <si>
-    <t>churn 2023</t>
-  </si>
-  <si>
     <t>control</t>
   </si>
   <si>
-    <t>Premium 2020</t>
-  </si>
-  <si>
-    <t>Premium 2021</t>
-  </si>
-  <si>
-    <t>Premium 2022</t>
-  </si>
-  <si>
-    <t>Premium 2023</t>
-  </si>
-  <si>
     <t>y</t>
   </si>
   <si>
     <t>T</t>
   </si>
   <si>
-    <t>Premium increase</t>
-  </si>
-  <si>
-    <t>Premium at churn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cumulative Increase at churn </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cumulative Increase at churn % </t>
+    <t>Premium dict</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>churn year (from start)</t>
+  </si>
+  <si>
+    <t>Total Premium</t>
+  </si>
+  <si>
+    <t>main/supp split at start</t>
+  </si>
+  <si>
+    <t>customers with iniitiation &lt; 2019 are dropped</t>
+  </si>
+  <si>
+    <t>Difference split</t>
+  </si>
+  <si>
+    <t>age at churn/now</t>
+  </si>
+  <si>
+    <t>Premium at churn/now</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cum. Increase at churn/now % </t>
+  </si>
+  <si>
+    <t>Cum. Increase at churn/now</t>
+  </si>
+  <si>
+    <t>Increase at churn/now</t>
+  </si>
+  <si>
+    <t>Increase at churn/now %</t>
+  </si>
+  <si>
+    <t>main/supp split at churn/now</t>
+  </si>
+  <si>
+    <t>churn/now to avoid embedding the y inside the x</t>
+  </si>
+  <si>
+    <t>latest customer data</t>
+  </si>
+  <si>
+    <t>nr car changes</t>
+  </si>
+  <si>
+    <t>Accident free years</t>
+  </si>
+  <si>
+    <t>Accident years lost</t>
+  </si>
+  <si>
+    <t>years since last car change</t>
+  </si>
+  <si>
+    <t>car, brand, accident free years, product…</t>
+  </si>
+  <si>
+    <t>latest policy components</t>
+  </si>
+  <si>
+    <t>allrisk… and wa</t>
+  </si>
+  <si>
+    <t>basis</t>
+  </si>
+  <si>
+    <t>compleet</t>
+  </si>
+  <si>
+    <t>royal</t>
+  </si>
+  <si>
+    <t>wa-extra</t>
+  </si>
+  <si>
+    <t>weights</t>
+  </si>
+  <si>
+    <t>wa</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>latest coverage vs peak</t>
+  </si>
+  <si>
+    <t>latest coverage trend</t>
+  </si>
+  <si>
+    <t>using n_coverage</t>
+  </si>
+  <si>
+    <t>false alarm (cancel + restorecancellation)</t>
+  </si>
+  <si>
+    <t>person change</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -165,12 +232,21 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -487,22 +563,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB9708A-421A-0241-B3D4-7CDDEED0A0CB}">
-  <dimension ref="B2:P16"/>
+  <dimension ref="B2:Y22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="35.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="37" style="5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -519,16 +610,16 @@
         <v>6</v>
       </c>
       <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
       <c r="I2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -548,10 +639,13 @@
         <v>1000</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="I3" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -571,14 +665,13 @@
         <v>1500</v>
       </c>
       <c r="H4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="2">
-        <f>G4/G3 *100-100</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="I4" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -598,14 +691,13 @@
         <v>1750</v>
       </c>
       <c r="H5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="2">
-        <f t="shared" ref="I5:I6" si="0">G5/G4 *100-100</f>
-        <v>16.666666666666671</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="I5" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>1</v>
       </c>
@@ -625,131 +717,318 @@
         <v>2000</v>
       </c>
       <c r="H6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="2">
-        <f t="shared" si="0"/>
-        <v>14.285714285714278</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="I6" s="7">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="V8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="W8" s="9"/>
+    </row>
+    <row r="9" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" t="s">
         <v>12</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="W9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y9" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>2023</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" t="s">
-        <v>16</v>
-      </c>
-      <c r="L9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M9" t="s">
-        <v>18</v>
-      </c>
-      <c r="N9" t="s">
-        <v>22</v>
-      </c>
-      <c r="O9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="4">
-        <v>1000</v>
-      </c>
-      <c r="K10" s="4">
-        <v>1500</v>
-      </c>
-      <c r="L10" s="4">
-        <v>1750</v>
-      </c>
-      <c r="M10" s="4">
+      <c r="H10" s="4">
         <v>2000</v>
       </c>
-      <c r="N10" s="4">
-        <v>2000</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="I10" s="3">
         <f>(G6/G3)</f>
         <v>2</v>
       </c>
+      <c r="J10" s="4">
+        <f>G6-G3</f>
+        <v>1000</v>
+      </c>
+      <c r="K10" s="4">
+        <v>250</v>
+      </c>
+      <c r="L10" s="3">
+        <f>G6/G5-1</f>
+        <v>0.14285714285714279</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="O10" s="1">
+        <f>N10-M10</f>
+        <v>9.9999999999999978E-2</v>
+      </c>
       <c r="P10" s="4">
-        <f>N10-J10</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>32</v>
+      </c>
+      <c r="R10" s="4">
+        <v>2</v>
+      </c>
+      <c r="S10" s="4">
+        <v>15</v>
+      </c>
+      <c r="T10" s="4">
+        <v>1</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="V10" s="4">
+        <f>X22-MAX(X19:X22)</f>
+        <v>-3</v>
+      </c>
+      <c r="W10" s="4">
+        <f>X22-X21</f>
+        <v>-2</v>
+      </c>
+      <c r="X10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="15" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
       <c r="E16" s="1"/>
     </row>
+    <row r="17" spans="17:24" x14ac:dyDescent="0.2">
+      <c r="Q17" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="R17" s="4">
+        <v>1</v>
+      </c>
+      <c r="S17" s="4">
+        <v>2</v>
+      </c>
+      <c r="T17" s="4">
+        <v>3</v>
+      </c>
+      <c r="U17" s="4">
+        <v>1</v>
+      </c>
+      <c r="V17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="17:24" x14ac:dyDescent="0.2">
+      <c r="R18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="U18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="V18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X18" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="17:24" x14ac:dyDescent="0.2">
+      <c r="Q19">
+        <v>2019</v>
+      </c>
+      <c r="T19" s="4">
+        <v>1</v>
+      </c>
+      <c r="U19" s="4">
+        <v>1</v>
+      </c>
+      <c r="V19" s="4">
+        <v>1</v>
+      </c>
+      <c r="X19" s="4">
+        <f>SUMPRODUCT(R19:V19,$R$17:$V$17)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="17:24" x14ac:dyDescent="0.2">
+      <c r="Q20">
+        <v>2020</v>
+      </c>
+      <c r="T20" s="4">
+        <v>1</v>
+      </c>
+      <c r="U20" s="4">
+        <v>1</v>
+      </c>
+      <c r="V20" s="4">
+        <v>1</v>
+      </c>
+      <c r="X20" s="4">
+        <f>SUMPRODUCT(R20:V20,$R$17:$V$17)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="17:24" x14ac:dyDescent="0.2">
+      <c r="Q21">
+        <v>2021</v>
+      </c>
+      <c r="S21" s="4">
+        <v>1</v>
+      </c>
+      <c r="U21" s="4">
+        <v>1</v>
+      </c>
+      <c r="V21" s="4">
+        <v>1</v>
+      </c>
+      <c r="X21" s="4">
+        <f>SUMPRODUCT(R21:V21,$R$17:$V$17)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="17:24" x14ac:dyDescent="0.2">
+      <c r="Q22">
+        <v>2022</v>
+      </c>
+      <c r="R22" s="4">
+        <v>1</v>
+      </c>
+      <c r="V22" s="4">
+        <v>1</v>
+      </c>
+      <c r="X22" s="4">
+        <f>SUMPRODUCT(R22:V22,$R$17:$V$17)</f>
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="V8:W8"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="X19:X22" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/reference/Data Format.xlsx
+++ b/reference/Data Format.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victorperso/Documents/EUR/Aegon Marketing Case/baqm-seminar-16/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11226AC4-D16A-DB41-B2A8-1E29970ADC65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB4AAD4-0B57-6F44-939F-CC638BC0B05D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{A5F595FE-D205-7E44-A0CB-1A074940655C}"/>
   </bookViews>
@@ -565,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB9708A-421A-0241-B3D4-7CDDEED0A0CB}">
   <dimension ref="B2:Y22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/reference/Data Format.xlsx
+++ b/reference/Data Format.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victorperso/Documents/EUR/Aegon Marketing Case/baqm-seminar-16/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB4AAD4-0B57-6F44-939F-CC638BC0B05D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2652DB3-E97F-7E49-BBC5-0DAEE6F31949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{A5F595FE-D205-7E44-A0CB-1A074940655C}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{A5F595FE-D205-7E44-A0CB-1A074940655C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -186,7 +186,7 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="166" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -210,12 +210,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -232,19 +238,22 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -565,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB9708A-421A-0241-B3D4-7CDDEED0A0CB}">
   <dimension ref="B2:Y22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="158" workbookViewId="0">
+      <selection activeCell="I13" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -727,16 +736,36 @@
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F8" t="s">
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="V8" s="9" t="s">
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="W8" s="9"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
     </row>
     <row r="9" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
@@ -1027,6 +1056,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
     <ignoredError sqref="X19:X22" formulaRange="1"/>
   </ignoredErrors>

--- a/reference/Data Format.xlsx
+++ b/reference/Data Format.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victorperso/Documents/EUR/Aegon Marketing Case/baqm-seminar-16/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2652DB3-E97F-7E49-BBC5-0DAEE6F31949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B74AC6F-FD22-734C-AE07-FEF86BB29712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{A5F595FE-D205-7E44-A0CB-1A074940655C}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" activeTab="1" xr2:uid="{A5F595FE-D205-7E44-A0CB-1A074940655C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="53">
   <si>
     <t>customer</t>
   </si>
@@ -177,6 +178,24 @@
   </si>
   <si>
     <t>person change</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>premium</t>
+  </si>
+  <si>
+    <t>customer D</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>nr car chg</t>
   </si>
 </sst>
 </file>
@@ -574,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB9708A-421A-0241-B3D4-7CDDEED0A0CB}">
   <dimension ref="B2:Y22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="158" workbookViewId="0">
-      <selection activeCell="I13" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1061,4 +1080,179 @@
     <ignoredError sqref="X19:X22" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0A98924-E87B-8947-8876-276D63CD1BBC}">
+  <dimension ref="D3:K12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="277" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4:H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>2021</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1000</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>2022</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>1500</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>2022</v>
+      </c>
+      <c r="K5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>2023</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2000</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>2023</v>
+      </c>
+      <c r="K6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="J7">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="8" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8">
+        <v>2021</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1000</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9">
+        <v>2022</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1500</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11">
+        <v>2022</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1000</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12">
+        <v>2023</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1500</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>